--- a/ARS_BZH.xlsx
+++ b/ARS_BZH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuzulia\Docs_stat\2020_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E72D5D-FA3F-4B26-A16F-F66B2F858A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94659D5-2146-4A72-80C0-E43F6DBA98EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1698A552-610B-454B-AD83-A61831B632DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1698A552-610B-454B-AD83-A61831B632DB}"/>
   </bookViews>
   <sheets>
     <sheet name="covid19_ARS_Bretagne" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
   <si>
     <t>Morbihan</t>
   </si>
@@ -107,8 +107,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9.9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -136,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -144,10 +143,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -464,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE5AE84-8476-4049-AFFD-106E3F84F5E1}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,10 +481,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B2">
-        <v>603</v>
+        <v>797</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -496,10 +492,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -507,11 +503,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B4">
-        <f>SUM(covid19_ARS_cas_par_departement!B8:B14)</f>
-        <v>532</v>
+        <v>707</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -519,10 +514,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -530,10 +525,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B6">
-        <v>490</v>
+        <v>603</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -541,10 +536,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -552,10 +547,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B8">
-        <v>446</v>
+        <f>SUM(covid19_ARS_cas_par_departement!B20:B26)</f>
+        <v>532</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -563,10 +559,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -574,10 +570,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B10">
-        <v>359</v>
+        <v>490</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -585,10 +581,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -596,10 +592,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B12">
-        <v>306</v>
+        <v>446</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -607,10 +603,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -618,10 +614,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B14">
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -629,10 +625,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -640,10 +636,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B16">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -651,10 +647,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -662,10 +658,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B18">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -673,43 +669,43 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B19">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43905</v>
+        <v>43908</v>
       </c>
       <c r="B21">
-        <v>195</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="B22">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -717,43 +713,43 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="B24">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -761,7 +757,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -772,10 +768,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B28">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -783,21 +779,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>43900</v>
+        <v>43903</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>43899</v>
+        <v>43902</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -805,21 +801,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>43898</v>
+        <v>43902</v>
       </c>
       <c r="B31">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>43897</v>
+        <v>43901</v>
       </c>
       <c r="B32">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -827,12 +823,56 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B33">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B34">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B35">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B36">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>43896</v>
       </c>
-      <c r="B33">
+      <c r="B37">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>13</v>
       </c>
     </row>
@@ -843,18 +883,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00B2C2-2488-42E0-B78F-21CF9DCC22CD}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -865,428 +906,419 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B2" s="4">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B3" s="4">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B4" s="4">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B5" s="4">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B6" s="4">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B7" s="4">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B8" s="4">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B9" s="4">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B10" s="4">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B11" s="4">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B12" s="4">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B13" s="4">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>43915</v>
       </c>
-      <c r="B2">
+      <c r="B14">
         <v>206</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>43915</v>
       </c>
-      <c r="B3">
+      <c r="B15">
         <v>143</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>43915</v>
       </c>
-      <c r="B4">
+      <c r="B16">
         <v>135</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>43915</v>
       </c>
-      <c r="B5">
+      <c r="B17">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>43915</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>43915</v>
       </c>
-      <c r="B7">
+      <c r="B19">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>43914</v>
       </c>
-      <c r="B8">
+      <c r="B20">
         <v>185</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>43914</v>
       </c>
-      <c r="B9">
+      <c r="B21">
         <v>127</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>43914</v>
       </c>
-      <c r="B10">
+      <c r="B22">
         <v>115</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>43914</v>
       </c>
-      <c r="B11">
+      <c r="B23">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>43914</v>
-      </c>
-      <c r="B12">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B13">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B15">
-        <v>181</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B16">
-        <v>112</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B17">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B18">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B19">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B20">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B21">
-        <v>174</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B22">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B23">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>43912</v>
       </c>
       <c r="B24">
         <v>38</v>
       </c>
       <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B27">
+        <v>181</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B28">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B29">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B30">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B25">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B26">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B27">
-        <v>157</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B28">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B29">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B30">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B31">
-        <v>134</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B32">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B33">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="B35">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="B36">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="B37">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>43908</v>
+        <v>43911</v>
       </c>
       <c r="B39">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1294,32 +1326,32 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>43908</v>
+        <v>43911</v>
       </c>
       <c r="B40">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>43908</v>
+        <v>43911</v>
       </c>
       <c r="B41">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>43908</v>
+        <v>43911</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1327,10 +1359,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B43">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -1338,32 +1370,32 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B44">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B45">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -1371,10 +1403,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B47">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -1382,32 +1414,32 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B48">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B49">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1415,10 +1447,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>43905</v>
+        <v>43908</v>
       </c>
       <c r="B51">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1426,10 +1458,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>43905</v>
+        <v>43908</v>
       </c>
       <c r="B52">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1437,10 +1469,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>43905</v>
+        <v>43908</v>
       </c>
       <c r="B53">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1448,10 +1480,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>43905</v>
+        <v>43908</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1459,10 +1491,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="B55">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -1470,10 +1502,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="B56">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1481,10 +1513,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="B57">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -1492,10 +1524,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -1503,10 +1535,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="B59">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
@@ -1514,10 +1546,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="B60">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1525,10 +1557,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="B61">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -1536,10 +1568,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
@@ -1547,10 +1579,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>43902</v>
+        <v>43905</v>
       </c>
       <c r="B63">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -1558,10 +1590,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>43902</v>
+        <v>43905</v>
       </c>
       <c r="B64">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -1569,10 +1601,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>43902</v>
+        <v>43905</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1580,10 +1612,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>43902</v>
+        <v>43905</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -1591,10 +1623,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>43901</v>
+        <v>43904</v>
       </c>
       <c r="B67">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1602,10 +1634,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>43901</v>
+        <v>43904</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1613,10 +1645,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>43901</v>
+        <v>43904</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -1624,109 +1656,109 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B70" s="3">
-        <v>63</v>
+        <v>43904</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B71" s="3">
-        <v>11</v>
+        <v>43903</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B72" s="3">
-        <v>7</v>
+        <v>43903</v>
+      </c>
+      <c r="B72">
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B73" s="3">
-        <v>55</v>
+        <v>43903</v>
+      </c>
+      <c r="B73">
+        <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B74" s="3">
-        <v>11</v>
+        <v>43903</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B75" s="3">
-        <v>5</v>
+        <v>43902</v>
+      </c>
+      <c r="B75">
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B76" s="3">
-        <v>47</v>
+        <v>43902</v>
+      </c>
+      <c r="B76">
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B77" s="3">
-        <v>7</v>
+        <v>43902</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B78" s="3">
-        <v>5</v>
+        <v>43902</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B79" s="3">
-        <v>35</v>
+        <v>43901</v>
+      </c>
+      <c r="B79">
+        <v>73</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -1734,10 +1766,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B80" s="3">
-        <v>7</v>
+        <v>43901</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1745,10 +1777,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B81" s="3">
-        <v>5</v>
+        <v>43901</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1756,10 +1788,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>43896</v>
+        <v>43900</v>
       </c>
       <c r="B82" s="3">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -1767,10 +1799,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>43896</v>
+        <v>43900</v>
       </c>
       <c r="B83" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -1778,19 +1810,151 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B84" s="3">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B85" s="3">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B86" s="3">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B88" s="3">
+        <v>47</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B89" s="3">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B91" s="3">
+        <v>35</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B92" s="3">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>43896</v>
       </c>
-      <c r="B84" s="3">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B94" s="3">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B95" s="3">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B96" s="3">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C84">
-    <sortCondition descending="1" ref="A2:A84"/>
-    <sortCondition descending="1" ref="B2:B84"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C96">
+    <sortCondition descending="1" ref="A14:A96"/>
+    <sortCondition descending="1" ref="B14:B96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ARS_BZH.xlsx
+++ b/ARS_BZH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuzulia\Docs_stat\2020_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94659D5-2146-4A72-80C0-E43F6DBA98EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750574BD-45BE-4D52-81C3-1C27D215F5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1698A552-610B-454B-AD83-A61831B632DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1698A552-610B-454B-AD83-A61831B632DB}"/>
   </bookViews>
   <sheets>
     <sheet name="covid19_ARS_Bretagne" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="17">
   <si>
     <t>Morbihan</t>
   </si>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE5AE84-8476-4049-AFFD-106E3F84F5E1}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,10 +481,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B2">
-        <v>797</v>
+        <v>889</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B4">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B6">
-        <v>603</v>
+        <v>707</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -547,11 +547,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B8">
-        <f>SUM(covid19_ARS_cas_par_departement!B20:B26)</f>
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -559,10 +558,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -570,10 +569,11 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B10">
-        <v>490</v>
+        <f>SUM(covid19_ARS_cas_par_departement!B26:B32)</f>
+        <v>532</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B12">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -603,10 +603,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -614,10 +614,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B14">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B16">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -647,10 +647,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B18">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B20">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B22">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -713,32 +713,32 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B23">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B25">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -746,32 +746,32 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B26">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B28">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -823,21 +823,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B33">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B34">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -867,12 +867,34 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B37">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B38">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>43896</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>34</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -883,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00B2C2-2488-42E0-B78F-21CF9DCC22CD}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,10 +930,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B2" s="4">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -919,10 +941,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B3" s="4">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -930,10 +952,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B4" s="4">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -941,10 +963,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B5" s="4">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -952,10 +974,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B6" s="4">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -963,10 +985,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B7" s="4">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -974,10 +996,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B8" s="4">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -985,10 +1007,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B9" s="4">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -996,10 +1018,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B10" s="4">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1007,10 +1029,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B11" s="4">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1018,10 +1040,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B12" s="4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1029,10 +1051,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B13" s="4">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1040,76 +1062,76 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B14">
-        <v>206</v>
+        <v>43916</v>
+      </c>
+      <c r="B14" s="4">
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B15">
-        <v>143</v>
+        <v>43916</v>
+      </c>
+      <c r="B15" s="4">
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B16">
-        <v>135</v>
+        <v>43916</v>
+      </c>
+      <c r="B16" s="4">
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B17">
-        <v>48</v>
+        <v>43916</v>
+      </c>
+      <c r="B17" s="4">
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B18">
-        <v>47</v>
+        <v>43916</v>
+      </c>
+      <c r="B18" s="4">
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B19">
-        <v>24</v>
+        <v>43916</v>
+      </c>
+      <c r="B19" s="4">
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B20">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -1117,10 +1139,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B21">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1128,10 +1150,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B22">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1139,10 +1161,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1150,10 +1172,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B24">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1161,10 +1183,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1175,84 +1197,84 @@
         <v>43914</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B27">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B30">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B31">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B33">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1260,10 +1282,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B34">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1271,10 +1293,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1282,10 +1304,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B36">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -1293,10 +1315,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B37">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1304,10 +1326,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -1315,10 +1337,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B39">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1326,10 +1348,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B40">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1337,10 +1359,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B41">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1348,483 +1370,483 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B42">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B43">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B44">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B45">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B47">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B48">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B49">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B51">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B52">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B55">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B56">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B57">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B59">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B60">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B61">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B63">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B64">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B65">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B67">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B68">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B69">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B71">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B72">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B75">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B76">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B79">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B82" s="3">
-        <v>63</v>
+        <v>43902</v>
+      </c>
+      <c r="B82">
+        <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B83" s="3">
-        <v>11</v>
+        <v>43902</v>
+      </c>
+      <c r="B83">
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B84" s="3">
-        <v>7</v>
+        <v>43902</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B85" s="3">
-        <v>55</v>
+        <v>43901</v>
+      </c>
+      <c r="B85">
+        <v>73</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1832,10 +1854,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B86" s="3">
-        <v>11</v>
+        <v>43901</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -1843,10 +1865,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B87" s="3">
-        <v>5</v>
+        <v>43901</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1854,10 +1876,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B88" s="3">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1865,10 +1887,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B89" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -1876,10 +1898,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B90" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -1887,10 +1909,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B91" s="3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
@@ -1898,10 +1920,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B92" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -1909,7 +1931,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B93" s="3">
         <v>5</v>
@@ -1920,10 +1942,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B94" s="3">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -1931,10 +1953,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B95" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -1942,19 +1964,85 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B97" s="3">
+        <v>35</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B98" s="3">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B99" s="3">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>43896</v>
       </c>
-      <c r="B96" s="3">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B100" s="3">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C96">
-    <sortCondition descending="1" ref="A14:A96"/>
-    <sortCondition descending="1" ref="B14:B96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:C102">
+    <sortCondition descending="1" ref="A20:A102"/>
+    <sortCondition descending="1" ref="B20:B102"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ARS_BZH.xlsx
+++ b/ARS_BZH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuzulia\Docs_stat\2020_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750574BD-45BE-4D52-81C3-1C27D215F5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413C0C5B-3D98-4539-81E9-5277CB602672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1698A552-610B-454B-AD83-A61831B632DB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="17">
   <si>
     <t>Morbihan</t>
   </si>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE5AE84-8476-4049-AFFD-106E3F84F5E1}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,10 +481,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B2">
-        <v>889</v>
+        <v>962</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B4">
-        <v>797</v>
+        <v>889</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B6">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B8">
-        <v>603</v>
+        <v>707</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -569,11 +569,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B10">
-        <f>SUM(covid19_ARS_cas_par_departement!B26:B32)</f>
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -581,10 +580,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -592,10 +591,11 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B12">
-        <v>490</v>
+        <f>SUM(covid19_ARS_cas_par_departement!B32:B38)</f>
+        <v>532</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -603,10 +603,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -614,10 +614,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B14">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B16">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -647,10 +647,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B18">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B20">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B22">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B24">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -735,32 +735,32 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B25">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B27">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -768,32 +768,32 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B28">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B30">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -845,21 +845,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="B35">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="B36">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B37">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B38">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -889,12 +889,34 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B39">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B40">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>43896</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>34</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>13</v>
       </c>
     </row>
@@ -905,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00B2C2-2488-42E0-B78F-21CF9DCC22CD}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,10 +952,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B2" s="4">
-        <v>210</v>
+        <v>43919</v>
+      </c>
+      <c r="B2">
+        <v>230</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -941,10 +963,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B3" s="4">
-        <v>92</v>
+        <v>43919</v>
+      </c>
+      <c r="B3">
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -952,10 +974,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B4" s="4">
-        <v>276</v>
+        <v>43919</v>
+      </c>
+      <c r="B4">
+        <v>313</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -963,10 +985,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B5" s="4">
-        <v>187</v>
+        <v>43919</v>
+      </c>
+      <c r="B5">
+        <v>208</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -974,10 +996,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B6" s="4">
-        <v>46</v>
+        <v>43919</v>
+      </c>
+      <c r="B6">
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -985,10 +1007,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B7" s="4">
-        <v>78</v>
+        <v>43919</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -996,10 +1018,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B8" s="4">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1007,10 +1029,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B9" s="4">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1018,10 +1040,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B10" s="4">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1029,10 +1051,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B11" s="4">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1040,10 +1062,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B12" s="4">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1051,10 +1073,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B13" s="4">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1062,10 +1084,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B14" s="4">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1073,10 +1095,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B15" s="4">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1084,10 +1106,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B16" s="4">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -1095,10 +1117,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B17" s="4">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1106,10 +1128,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B18" s="4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1117,10 +1139,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B19" s="4">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1128,76 +1150,76 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B20">
-        <v>206</v>
+        <v>43916</v>
+      </c>
+      <c r="B20" s="4">
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B21">
-        <v>143</v>
+        <v>43916</v>
+      </c>
+      <c r="B21" s="4">
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B22">
-        <v>135</v>
+        <v>43916</v>
+      </c>
+      <c r="B22" s="4">
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B23">
-        <v>48</v>
+        <v>43916</v>
+      </c>
+      <c r="B23" s="4">
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B24">
-        <v>47</v>
+        <v>43916</v>
+      </c>
+      <c r="B24" s="4">
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
+        <v>43916</v>
+      </c>
+      <c r="B25" s="4">
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B26">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -1205,10 +1227,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -1216,10 +1238,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -1227,10 +1249,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B29">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1238,10 +1260,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B30">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1249,10 +1271,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1263,84 +1285,84 @@
         <v>43914</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B33">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B36">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B39">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1348,10 +1370,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1359,10 +1381,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B41">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1370,10 +1392,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B42">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -1381,10 +1403,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B43">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -1392,10 +1414,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1403,10 +1425,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B45">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -1414,10 +1436,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B46">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -1425,10 +1447,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B47">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1436,483 +1458,483 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B49">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B50">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B51">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B53">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B54">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B55">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B57">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B58">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B59">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B61">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B62">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B63">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B65">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B66">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B67">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B69">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B70">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B71">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B73">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B74">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B75">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B77">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>43903</v>
+        <v>43905</v>
       </c>
       <c r="B78">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B81">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>43902</v>
+        <v>43904</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B85">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B88" s="3">
-        <v>63</v>
+        <v>43902</v>
+      </c>
+      <c r="B88">
+        <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B89" s="3">
-        <v>11</v>
+        <v>43902</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B90" s="3">
-        <v>7</v>
+        <v>43902</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B91" s="3">
-        <v>55</v>
+        <v>43901</v>
+      </c>
+      <c r="B91">
+        <v>73</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
@@ -1920,10 +1942,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B92" s="3">
-        <v>11</v>
+        <v>43901</v>
+      </c>
+      <c r="B92">
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -1931,10 +1953,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B93" s="3">
-        <v>5</v>
+        <v>43901</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -1942,10 +1964,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B94" s="3">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -1953,10 +1975,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B95" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -1964,10 +1986,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="B96" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -1975,10 +1997,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B97" s="3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -1986,10 +2008,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B98" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -1997,7 +2019,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="B99" s="3">
         <v>5</v>
@@ -2008,10 +2030,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B100" s="3">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -2019,10 +2041,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="B101" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -2030,19 +2052,85 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B102" s="3">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B103" s="3">
+        <v>35</v>
+      </c>
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B104" s="3">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B105" s="3">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
         <v>43896</v>
       </c>
-      <c r="B102" s="3">
-        <v>4</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B106" s="3">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B107" s="3">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B108" s="3">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:C102">
-    <sortCondition descending="1" ref="A20:A102"/>
-    <sortCondition descending="1" ref="B20:B102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:C108">
+    <sortCondition descending="1" ref="A26:A108"/>
+    <sortCondition descending="1" ref="B26:B108"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ARS_BZH.xlsx
+++ b/ARS_BZH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuzulia\Docs_stat\2020_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413C0C5B-3D98-4539-81E9-5277CB602672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC28DDD8-7EE2-4395-951A-7582280A6A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1698A552-610B-454B-AD83-A61831B632DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1698A552-610B-454B-AD83-A61831B632DB}"/>
   </bookViews>
   <sheets>
     <sheet name="covid19_ARS_Bretagne" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="17">
   <si>
     <t>Morbihan</t>
   </si>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +108,14 @@
     </font>
     <font>
       <sz val="9.9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -135,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -144,6 +152,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -460,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE5AE84-8476-4049-AFFD-106E3F84F5E1}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,10 +495,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="B2">
-        <v>962</v>
+        <v>1109</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -492,10 +506,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -503,10 +517,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43918</v>
+        <v>43921</v>
       </c>
       <c r="B4">
-        <v>889</v>
+        <v>1040</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -514,10 +528,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43918</v>
+        <v>43921</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -525,10 +539,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="B6">
-        <v>797</v>
+        <v>993</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -536,10 +550,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -547,10 +561,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="B8">
-        <v>707</v>
+        <v>962</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -558,10 +572,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -569,10 +583,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="B10">
-        <v>603</v>
+        <v>889</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -580,10 +594,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -591,11 +605,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B12">
-        <f>SUM(covid19_ARS_cas_par_departement!B32:B38)</f>
-        <v>532</v>
+        <v>797</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -603,10 +616,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -614,10 +627,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B14">
-        <v>490</v>
+        <v>707</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -625,10 +638,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43913</v>
+        <v>43916</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -636,10 +649,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="B16">
-        <v>446</v>
+        <v>603</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -647,10 +660,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -658,10 +671,11 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="B18">
-        <v>359</v>
+        <f>SUM(covid19_ARS_cas_par_departement!B50:B56)</f>
+        <v>532</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -669,10 +683,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -680,10 +694,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B20">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -691,10 +705,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -702,10 +716,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="B22">
-        <v>268</v>
+        <v>446</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -713,10 +727,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -724,10 +738,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>43908</v>
+        <v>43911</v>
       </c>
       <c r="B24">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -735,10 +749,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>43908</v>
+        <v>43911</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -746,10 +760,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="B26">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -757,43 +771,43 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="B27">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="B29">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="B30">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -801,10 +815,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -812,10 +826,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="B32">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -823,43 +837,43 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>43902</v>
+        <v>43906</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>43902</v>
+        <v>43905</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>43901</v>
+        <v>43904</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -867,21 +881,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>43900</v>
+        <v>43904</v>
       </c>
       <c r="B37">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>43899</v>
+        <v>43903</v>
       </c>
       <c r="B38">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -889,21 +903,21 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>43898</v>
+        <v>43903</v>
       </c>
       <c r="B39">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>43897</v>
+        <v>43902</v>
       </c>
       <c r="B40">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -911,12 +925,78 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B42">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B43">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B44">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B45">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B46">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>43896</v>
       </c>
-      <c r="B41">
+      <c r="B47">
         <v>34</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C47" t="s">
         <v>13</v>
       </c>
     </row>
@@ -927,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00B2C2-2488-42E0-B78F-21CF9DCC22CD}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +1019,7 @@
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -950,441 +1030,449 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="B2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="B3">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="B4">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="B5">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B8" s="4">
-        <v>210</v>
+        <v>43921</v>
+      </c>
+      <c r="B8">
+        <v>249</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B9" s="4">
-        <v>92</v>
+        <v>43921</v>
+      </c>
+      <c r="B9">
+        <v>122</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B10" s="4">
-        <v>276</v>
+        <v>43921</v>
+      </c>
+      <c r="B10">
+        <v>338</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B11" s="4">
-        <v>187</v>
+        <v>43921</v>
+      </c>
+      <c r="B11">
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B12" s="4">
-        <v>46</v>
+        <v>43921</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B13" s="4">
-        <v>78</v>
+        <v>43921</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B14" s="4">
-        <v>191</v>
+        <v>43920</v>
+      </c>
+      <c r="B14">
+        <v>235</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B15" s="4">
-        <v>77</v>
+        <v>43920</v>
+      </c>
+      <c r="B15">
+        <v>112</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B16" s="4">
-        <v>256</v>
+        <v>43920</v>
+      </c>
+      <c r="B16">
+        <v>320</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B17" s="4">
-        <v>167</v>
+        <v>43920</v>
+      </c>
+      <c r="B17">
+        <v>220</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B18" s="4">
-        <v>39</v>
+        <v>43920</v>
+      </c>
+      <c r="B18">
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B19" s="4">
-        <v>67</v>
+        <v>43920</v>
+      </c>
+      <c r="B19">
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B20" s="4">
-        <v>171</v>
+        <v>43919</v>
+      </c>
+      <c r="B20">
+        <v>230</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B21" s="4">
-        <v>60</v>
+        <v>43919</v>
+      </c>
+      <c r="B21">
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B22" s="4">
-        <v>231</v>
+        <v>43919</v>
+      </c>
+      <c r="B22">
+        <v>313</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B23" s="4">
-        <v>152</v>
+        <v>43919</v>
+      </c>
+      <c r="B23">
+        <v>208</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B24" s="4">
-        <v>32</v>
+        <v>43919</v>
+      </c>
+      <c r="B24">
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B25" s="4">
-        <v>61</v>
+        <v>43919</v>
+      </c>
+      <c r="B25">
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B26">
-        <v>206</v>
+        <v>43918</v>
+      </c>
+      <c r="B26" s="4">
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B27">
-        <v>143</v>
+        <v>43918</v>
+      </c>
+      <c r="B27" s="4">
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B28">
-        <v>135</v>
+        <v>43918</v>
+      </c>
+      <c r="B28" s="4">
+        <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B29">
-        <v>48</v>
+        <v>43918</v>
+      </c>
+      <c r="B29" s="4">
+        <v>187</v>
       </c>
       <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B30" s="4">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B31" s="4">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B30">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B31">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B32">
-        <v>185</v>
+        <v>43917</v>
+      </c>
+      <c r="B32" s="4">
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B33">
-        <v>127</v>
+        <v>43917</v>
+      </c>
+      <c r="B33" s="4">
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B34">
-        <v>115</v>
+        <v>43917</v>
+      </c>
+      <c r="B34" s="4">
+        <v>256</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B35">
-        <v>42</v>
+        <v>43917</v>
+      </c>
+      <c r="B35" s="4">
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B36">
-        <v>38</v>
+        <v>43917</v>
+      </c>
+      <c r="B36" s="4">
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B37">
-        <v>19</v>
+        <v>43917</v>
+      </c>
+      <c r="B37" s="4">
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
+        <v>43916</v>
+      </c>
+      <c r="B38" s="4">
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B39">
-        <v>181</v>
+        <v>43916</v>
+      </c>
+      <c r="B39" s="4">
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B40">
-        <v>112</v>
+        <v>43916</v>
+      </c>
+      <c r="B40" s="4">
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B41">
-        <v>105</v>
+        <v>43916</v>
+      </c>
+      <c r="B41" s="4">
+        <v>152</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1392,142 +1480,142 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B42">
-        <v>42</v>
+        <v>43916</v>
+      </c>
+      <c r="B42" s="4">
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B43">
-        <v>36</v>
+        <v>43916</v>
+      </c>
+      <c r="B43" s="4">
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="B45">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="B46">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="B47">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="B48">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="B49">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="B51">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="B52">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="B53">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="B54">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1535,98 +1623,98 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B55">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B56">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B57">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B59">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B61">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="B63">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -1634,373 +1722,373 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="B64">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="B65">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>43907</v>
+        <v>43912</v>
       </c>
       <c r="B67">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>43907</v>
+        <v>43912</v>
       </c>
       <c r="B68">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>43907</v>
+        <v>43911</v>
       </c>
       <c r="B69">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>43907</v>
+        <v>43911</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>43906</v>
+        <v>43911</v>
       </c>
       <c r="B71">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43906</v>
+        <v>43911</v>
       </c>
       <c r="B72">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="B73">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>43905</v>
+        <v>43910</v>
       </c>
       <c r="B75">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>43905</v>
+        <v>43910</v>
       </c>
       <c r="B76">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="B77">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>43904</v>
+        <v>43909</v>
       </c>
       <c r="B79">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>43904</v>
+        <v>43909</v>
       </c>
       <c r="B80">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="B81">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>43903</v>
+        <v>43908</v>
       </c>
       <c r="B83">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>43903</v>
+        <v>43908</v>
       </c>
       <c r="B84">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="B85">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>43902</v>
+        <v>43907</v>
       </c>
       <c r="B87">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>43902</v>
+        <v>43907</v>
       </c>
       <c r="B88">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>43902</v>
+        <v>43906</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>43902</v>
+        <v>43906</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="B91">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>43901</v>
+        <v>43905</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B94" s="3">
-        <v>63</v>
+        <v>43905</v>
+      </c>
+      <c r="B94">
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B95" s="3">
-        <v>11</v>
+        <v>43905</v>
+      </c>
+      <c r="B95">
+        <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B96" s="3">
-        <v>7</v>
+        <v>43905</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B97" s="3">
-        <v>55</v>
+        <v>43904</v>
+      </c>
+      <c r="B97">
+        <v>106</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -2008,10 +2096,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B98" s="3">
-        <v>11</v>
+        <v>43904</v>
+      </c>
+      <c r="B98">
+        <v>34</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -2019,10 +2107,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B99" s="3">
-        <v>5</v>
+        <v>43904</v>
+      </c>
+      <c r="B99">
+        <v>34</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2030,107 +2118,305 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B100" s="3">
-        <v>47</v>
+        <v>43904</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B101" s="3">
-        <v>7</v>
+        <v>43903</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B102" s="3">
-        <v>5</v>
+        <v>43903</v>
+      </c>
+      <c r="B102">
+        <v>34</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B103" s="3">
-        <v>35</v>
+        <v>43903</v>
+      </c>
+      <c r="B103">
+        <v>22</v>
       </c>
       <c r="C103" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B104" s="3">
-        <v>7</v>
+        <v>43903</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B105" s="3">
-        <v>5</v>
+        <v>43902</v>
+      </c>
+      <c r="B105">
+        <v>85</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B106" s="3">
-        <v>24</v>
+        <v>43902</v>
+      </c>
+      <c r="B106">
+        <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B107" s="3">
-        <v>6</v>
+        <v>43902</v>
+      </c>
+      <c r="B107">
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B109">
+        <v>73</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B110">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B111">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B112" s="3">
+        <v>63</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B113" s="3">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B114" s="3">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B115" s="3">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B116" s="3">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B118" s="3">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B119" s="3">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B120" s="3">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B121" s="3">
+        <v>35</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B122" s="3">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B123" s="3">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>43896</v>
       </c>
-      <c r="B108" s="3">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B124" s="3">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B125" s="3">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B126" s="3">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:C108">
-    <sortCondition descending="1" ref="A26:A108"/>
-    <sortCondition descending="1" ref="B26:B108"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:C126">
+    <sortCondition descending="1" ref="A44:A126"/>
+    <sortCondition descending="1" ref="B44:B126"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
